--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9683A6-E021-4837-B2FD-8C008496A3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5856EEE-705F-4946-8CEB-5C3322C9C76D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +71,14 @@
     "config_name": "testa2pg23",
     "config_value": "3"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,74 +420,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5856EEE-705F-4946-8CEB-5C3322C9C76D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D60A4EC-3FD0-40A2-B159-7C80AEFEE1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
   </si>
   <si>
     <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
-    "config_name": "testa2pg",
-    "config_value": "3"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,6 +71,38 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置已存在，不能重复添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/?&amp;s=App.Config.AddConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
+    "config_name": "testa23g",
+    "config_value": "323"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,21 +442,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -449,30 +473,42 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -484,16 +520,22 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0C28B135-7DB3-492C-B660-58B665B95EC2}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig" xr:uid="{0C28B135-7DB3-492C-B660-58B665B95EC2}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{A1589B88-8915-41F2-A181-07527FCFAA56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D60A4EC-3FD0-40A2-B159-7C80AEFEE1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE8C7C-D87F-4EEE-8A49-5750472D6F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,23 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置已存在，不能重复添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,6 +87,22 @@
     "config_name": "testa23g",
     "config_value": "323"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message+errorcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,19 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="28.125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="8" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -474,13 +475,16 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -488,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -497,16 +501,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -526,10 +527,36 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
         <v>16</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -537,8 +564,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig" xr:uid="{0C28B135-7DB3-492C-B660-58B665B95EC2}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{A1589B88-8915-41F2-A181-07527FCFAA56}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E9B1C193-4A5F-4E77-AD00-5ACE3BDA9FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -1,142 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE8C7C-D87F-4EEE-8A49-5750472D6F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
-    "config_name": "testa2pg23",
-    "config_value": "3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/?&amp;s=App.Config.AddConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
-    "config_name": "testa23g",
-    "config_value": "323"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message+errorcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,30 +58,89 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,132 +406,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="8" width="19.375" customWidth="1"/>
+    <col customWidth="1" max="5" min="5" width="28.125"/>
+    <col customWidth="1" max="6" min="6" width="44"/>
+    <col customWidth="1" max="8" min="7" width="19.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>请求方法</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>检验方式</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>失败数据</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="85.5" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>/?&amp;s=App.Config.AddConfig</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
+    "config_name": "testa23g",
+    "config_value": "323"
+}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>message+errorcode</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="85.5" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
+    "config_name": "testa2pg23",
+    "config_value": "3"
+}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorcode</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+    <row customHeight="1" ht="85.5" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json"}</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{
+    "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
+    "config_name": "testa2pg23",
+    "config_value": "3"
+}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>errorcode</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig" xr:uid="{0C28B135-7DB3-492C-B660-58B665B95EC2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A1589B88-8915-41F2-A181-07527FCFAA56}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E9B1C193-4A5F-4E77-AD00-5ACE3BDA9FC0}"/>
+    <hyperlink display="http://hn216.api.yesapi.cn/?&amp;s=App.Config.AddConfig" ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -411,14 +411,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
+    <col customWidth="1" max="2" min="2" width="10.5"/>
     <col customWidth="1" max="5" min="5" width="28.125"/>
     <col customWidth="1" max="6" min="6" width="44"/>
     <col customWidth="1" max="8" min="7" width="19.375"/>
@@ -475,6 +476,21 @@
           <t>失败数据</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>返回数据</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>依赖Key</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="85.5" r="2">
       <c r="A2" t="inlineStr">
@@ -484,7 +500,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>添加</t>
+          <t>addDevice1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -521,6 +537,11 @@
           <t>成功</t>
         </is>
       </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="85.5" r="3">
       <c r="A3" t="inlineStr">
@@ -530,7 +551,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>添加</t>
+          <t>addDevice2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -565,9 +586,24 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>addDevice1&gt;data.err_code</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>config_name</t>
         </is>
       </c>
     </row>
@@ -579,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>添加</t>
+          <t>addDevice3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -602,7 +638,7 @@
           <t>{
     "app_key": "6A3D030D071263AEDC8F8E115C30CA3E",
     "config_name": "testa2pg23",
-    "config_value": "3"
+    "config_value": "4"
 }</t>
         </is>
       </c>
@@ -614,7 +650,12 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
         </is>

--- a/data/excel.xlsx
+++ b/data/excel.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -586,6 +586,11 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
           <t>{"ret": 200, "data": {"err_code": 1, "err_msg": "配置已存在，不能重复添加"}, "msg": "V3.1.0 YesApi App.Config.AddConfig"}</t>
@@ -649,6 +654,11 @@
       </c>
       <c r="H4" t="n">
         <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
